--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
